--- a/data/Simulations/HR1/A_KPC_35_1/Raw Data/A_KPC_35.xlsx
+++ b/data/Simulations/HR1/A_KPC_35_1/Raw Data/A_KPC_35.xlsx
@@ -8,19 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\HR1\A_KPC_35_1\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ED9E14-DEF0-47C1-977F-65D78592C7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2061F8-C271-4B57-A853-65CBFC803537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="A_KPC_35_1, Winter, Bd" sheetId="1" r:id="rId1"/>
-    <sheet name="A_KPC_35_1, Winter, Sa" sheetId="3" r:id="rId2"/>
-    <sheet name="A_KPC_35_1, Winter, Su" sheetId="4" r:id="rId3"/>
+    <sheet name="A_KPC_35, Winter, Bd" sheetId="1" r:id="rId1"/>
+    <sheet name="A_KPC_35, Winter, Sa" sheetId="3" r:id="rId2"/>
+    <sheet name="A_KPC_35, Winter, Su" sheetId="4" r:id="rId3"/>
+    <sheet name="A_KPC_35, Summer, Bd" sheetId="7" r:id="rId4"/>
+    <sheet name="A_KPC_35, Summer, Sa" sheetId="6" r:id="rId5"/>
+    <sheet name="A_KPC_35, Summer, Su" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'A_KPC_35_1, Winter, Bd'!$A$1:$B$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'A_KPC_35_1, Winter, Sa'!$A$1:$B$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'A_KPC_35_1, Winter, Su'!$A$1:$B$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'A_KPC_35, Summer, Bd'!$A$1:$B$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'A_KPC_35, Summer, Sa'!$A$1:$B$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'A_KPC_35, Summer, Su'!$A$1:$B$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'A_KPC_35, Winter, Bd'!$A$1:$B$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'A_KPC_35, Winter, Sa'!$A$1:$B$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'A_KPC_35, Winter, Su'!$A$1:$B$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="5">
   <si>
     <t>Node ID</t>
   </si>
@@ -380,7 +386,7 @@
   <dimension ref="A1:CT29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:Z29"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +471,7 @@
         <v>23</v>
       </c>
       <c r="AA1">
-        <f t="shared" ref="H1:BS1" si="0">W1+1</f>
+        <f t="shared" ref="AA1:BS1" si="0">W1+1</f>
         <v>21</v>
       </c>
       <c r="AB1">
@@ -3011,7 +3017,7 @@
   <dimension ref="A1:CT29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:Z29"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5641,8 +5647,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:CT29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:Z29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8265,4 +8271,7033 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682180CB-2F09-4E64-AEE8-1870CC98E9E7}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Z29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:Z29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>6</v>
+      </c>
+      <c r="J1">
+        <v>7</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>10</v>
+      </c>
+      <c r="N1">
+        <v>11</v>
+      </c>
+      <c r="O1">
+        <v>12</v>
+      </c>
+      <c r="P1">
+        <v>13</v>
+      </c>
+      <c r="Q1">
+        <v>14</v>
+      </c>
+      <c r="R1">
+        <v>15</v>
+      </c>
+      <c r="S1">
+        <v>16</v>
+      </c>
+      <c r="T1">
+        <v>17</v>
+      </c>
+      <c r="U1">
+        <v>18</v>
+      </c>
+      <c r="V1">
+        <v>19</v>
+      </c>
+      <c r="W1">
+        <v>20</v>
+      </c>
+      <c r="X1">
+        <v>21</v>
+      </c>
+      <c r="Y1">
+        <v>22</v>
+      </c>
+      <c r="Z1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6.6647515250000007</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.5962838000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6.3574160500000003</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6.2413224249999999</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.1999602249999999</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6.2887607750000001</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6.2372731000000003</v>
+      </c>
+      <c r="J2" s="1">
+        <v>7.6242219999999996</v>
+      </c>
+      <c r="K2" s="1">
+        <v>8.2030825749999998</v>
+      </c>
+      <c r="L2" s="1">
+        <v>8.0965050500000011</v>
+      </c>
+      <c r="M2" s="1">
+        <v>7.9621012250000005</v>
+      </c>
+      <c r="N2" s="1">
+        <v>8.0599947000000007</v>
+      </c>
+      <c r="O2" s="1">
+        <v>8.3584031999999997</v>
+      </c>
+      <c r="P2" s="1">
+        <v>8.1980834250000001</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>7.5635584750000007</v>
+      </c>
+      <c r="R2" s="1">
+        <v>7.7965952249999999</v>
+      </c>
+      <c r="S2" s="1">
+        <v>7.8862824500000004</v>
+      </c>
+      <c r="T2" s="1">
+        <v>7.6251163500000008</v>
+      </c>
+      <c r="U2" s="1">
+        <v>7.2382626750000005</v>
+      </c>
+      <c r="V2" s="1">
+        <v>7.14726865</v>
+      </c>
+      <c r="W2" s="1">
+        <v>7.1256017749999998</v>
+      </c>
+      <c r="X2" s="1">
+        <v>7.0452986749999997</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>6.5109272000000002</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>6.295634175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.55187144999999993</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.60497527500000003</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.57389622500000004</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.57288145000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.56146802500000004</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.59391987499999999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.60898540000000001</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.1425032750000002</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.3284984999999998</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.2811151249999999</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.24778535</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.2505366499999999</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1.3291379000000001</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1.2854931000000001</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.90294255000000001</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1.18071485</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1.195266825</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1.1224484750000001</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.88686170000000009</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.80436097499999992</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.84339344999999999</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.8483800749999999</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0.58555972499999998</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0.57824399999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.5369850500000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.4474851499999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.3919493250000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.2656987499999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.2195569499999999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.2826747250000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.3642475250000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.8320636749999999</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.0014345250000001</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2.13393765</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.944169225</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2.0415852750000001</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2.0435836749999998</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1.9938205250000001</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.7160361</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1.7888015749999999</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1.8935654249999998</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1.8824217000000001</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1.9661404499999997</v>
+      </c>
+      <c r="V4" s="1">
+        <v>2.0695369499999998</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2.1663264500000001</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1.9888104000000002</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1.706842975</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>1.57539765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.755800000000001E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-2.84411E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-3.3775675000000005E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-4.5775274999999997E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-5.8215050000000004E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-4.7225875E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-5.5126174999999993E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.14444374999999998</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.18567987499999999</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.23836147499999999</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.137497175</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.123682975</v>
+      </c>
+      <c r="O5" s="1">
+        <v>8.5340275000000007E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.113273925</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>4.8458274999999995E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>4.2739800000000001E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <v>4.9966474999999996E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <v>9.0587499999999987E-2</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.17207700000000001</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.17576645000000002</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0.13968867499999998</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0.1065743</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>5.2202724999999998E-2</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>9.5909499999999991E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.4884417249999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.2781386000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.0184613999999996</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.1446436749999997</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.0848938749999997</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3.1489628000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4.4615132749999997</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5.7117167499999999</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5.9899249250000004</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5.6154416999999999</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5.4947721999999999</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5.9058139250000004</v>
+      </c>
+      <c r="O6" s="1">
+        <v>6.1789139249999998</v>
+      </c>
+      <c r="P6" s="1">
+        <v>5.7358501000000004</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>5.2289361000000003</v>
+      </c>
+      <c r="R6" s="1">
+        <v>4.9600528750000006</v>
+      </c>
+      <c r="S6" s="1">
+        <v>5.0678833750000001</v>
+      </c>
+      <c r="T6" s="1">
+        <v>4.9000805500000002</v>
+      </c>
+      <c r="U6" s="1">
+        <v>4.7855443749999997</v>
+      </c>
+      <c r="V6" s="1">
+        <v>5.2130249749999997</v>
+      </c>
+      <c r="W6" s="1">
+        <v>5.4622722749999992</v>
+      </c>
+      <c r="X6" s="1">
+        <v>5.0982611499999999</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>4.4673694499999996</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>3.7205489250000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-9.4742400000000004E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-0.22360597500000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-0.39387750000000005</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.36407754999999997</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-0.36989812499999997</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-0.354164125</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-2.1957024999999995E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.42416207500000003</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.553853025</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.56018800000000002</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.46778544999999999</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.587047125</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.53026132500000001</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.46175662499999998</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.33432672499999999</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.208728575</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.257380675</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0.229249225</v>
+      </c>
+      <c r="U7" s="1">
+        <v>4.4279275E-2</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0.184280375</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0.25737270000000001</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0.16746554999999999</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>-0.15780862500000001</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>-0.32507815000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.35855962499999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.280961075</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.21694849999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.2171575</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.20160955</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.189788075</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.42891964999999999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.77257947500000002</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.93850107500000002</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.95810084999999989</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.94345179999999995</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.84405827500000008</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.95759257499999995</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.90525912499999994</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.82544667500000002</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.75874482499999996</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.68880094999999997</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.6126701</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0.78048324999999996</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0.91287260000000003</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1.0493643750000001</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1.0005397499999999</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0.74915987500000014</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0.53448470000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-0.51916475000000006</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-0.52371082499999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-0.53931687500000003</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.53933107499999999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-0.55147864999999996</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-0.56809287500000005</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-0.5123915750000001</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-0.34786059999999996</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-0.25946487499999998</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-0.27357787499999997</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-0.34478565</v>
+      </c>
+      <c r="N9" s="1">
+        <v>-0.37804104999999999</v>
+      </c>
+      <c r="O9" s="1">
+        <v>-0.34939377500000002</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-0.3788378</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>-0.35866117500000005</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-0.42260955</v>
+      </c>
+      <c r="S9" s="1">
+        <v>-0.47309782500000003</v>
+      </c>
+      <c r="T9" s="1">
+        <v>-0.42091707500000003</v>
+      </c>
+      <c r="U9" s="1">
+        <v>-0.29761044999999997</v>
+      </c>
+      <c r="V9" s="1">
+        <v>-0.26591962499999999</v>
+      </c>
+      <c r="W9" s="1">
+        <v>-0.2667466</v>
+      </c>
+      <c r="X9" s="1">
+        <v>-0.35235252499999997</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>-0.43926427500000004</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>-0.45572717500000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.2257411249999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.8980773750000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.6815512500000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.617645075</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.7411266999999997</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2.7495826249999999</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3.0443400250000003</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3.5457621750000001</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3.9151435249999995</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4.0337913749999998</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4.3246603000000006</v>
+      </c>
+      <c r="N10" s="1">
+        <v>4.5728658250000001</v>
+      </c>
+      <c r="O10" s="1">
+        <v>4.6907306749999993</v>
+      </c>
+      <c r="P10" s="1">
+        <v>4.4689712499999992</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>4.3057236750000003</v>
+      </c>
+      <c r="R10" s="1">
+        <v>4.2547958000000001</v>
+      </c>
+      <c r="S10" s="1">
+        <v>4.2689285249999998</v>
+      </c>
+      <c r="T10" s="1">
+        <v>4.2226882000000003</v>
+      </c>
+      <c r="U10" s="1">
+        <v>4.2953165999999996</v>
+      </c>
+      <c r="V10" s="1">
+        <v>4.3661560750000001</v>
+      </c>
+      <c r="W10" s="1">
+        <v>4.796605725</v>
+      </c>
+      <c r="X10" s="1">
+        <v>4.5735751499999999</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>4.3282527999999996</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>3.8043156250000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-0.22619375</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.29562862499999998</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-0.34708847499999995</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.34623092500000002</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-0.34840414999999997</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-0.37665427500000004</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-0.338795175</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-0.13524902499999999</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4.2249074999999997E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.15025364999999999</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.24786647499999998</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.26315197499999998</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.23098332500000002</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.18871882500000001</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.12467905</v>
+      </c>
+      <c r="R11" s="1">
+        <v>8.2783725000000002E-2</v>
+      </c>
+      <c r="S11" s="1">
+        <v>6.9153550000000008E-2</v>
+      </c>
+      <c r="T11" s="1">
+        <v>6.0860325E-2</v>
+      </c>
+      <c r="U11" s="1">
+        <v>6.1555024999999999E-2</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1.6822674999999999E-2</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0.130931925</v>
+      </c>
+      <c r="X11" s="1">
+        <v>5.9722024999999998E-2</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>3.423665E-2</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>-5.4844950000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.0404915750000008</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.8388331999999998</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.4983972249999997</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4.6904332750000002</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4.8156860000000004</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4.8292750250000003</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5.2567637999999999</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6.6081029249999998</v>
+      </c>
+      <c r="K12" s="1">
+        <v>6.9027556250000002</v>
+      </c>
+      <c r="L12" s="1">
+        <v>6.8631944750000002</v>
+      </c>
+      <c r="M12" s="1">
+        <v>6.8800972749999998</v>
+      </c>
+      <c r="N12" s="1">
+        <v>7.259216799999999</v>
+      </c>
+      <c r="O12" s="1">
+        <v>7.1676666999999998</v>
+      </c>
+      <c r="P12" s="1">
+        <v>6.8543249250000002</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>6.4462916999999997</v>
+      </c>
+      <c r="R12" s="1">
+        <v>6.2181583500000004</v>
+      </c>
+      <c r="S12" s="1">
+        <v>6.5291221250000007</v>
+      </c>
+      <c r="T12" s="1">
+        <v>6.3298695</v>
+      </c>
+      <c r="U12" s="1">
+        <v>5.9632055499999996</v>
+      </c>
+      <c r="V12" s="1">
+        <v>6.0313583499999996</v>
+      </c>
+      <c r="W12" s="1">
+        <v>6.2883750250000006</v>
+      </c>
+      <c r="X12" s="1">
+        <v>5.7485750749999998</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>5.2759805999999996</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>5.24188615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.63930140000000002</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.71051195</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.53804942499999997</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.63398612499999996</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.64900582499999993</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.66636055000000005</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.64547725</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.1935330999999998</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1.3707297250000001</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1.3676791750000001</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1.195258025</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1.4274928249999999</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1.4874111000000001</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1.3728169499999998</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1.1923047</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1.0485578</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1.27837665</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1.2395750000000001</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0.97272665000000003</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0.90216442499999994</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1.0628011000000002</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0.83614139999999992</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0.63849389999999995</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0.71100997499999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.5851008000000002</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.3191110500000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.2728705499999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.3233803000000002</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.2572801249999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2.4614721499999996</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3.1784382999999998</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3.6240299999999999</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4.1790459250000005</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4.4040441750000001</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4.3841735250000005</v>
+      </c>
+      <c r="N14" s="1">
+        <v>4.5743414250000001</v>
+      </c>
+      <c r="O14" s="1">
+        <v>4.4461737750000001</v>
+      </c>
+      <c r="P14" s="1">
+        <v>4.5412012500000003</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>4.4671371000000004</v>
+      </c>
+      <c r="R14" s="1">
+        <v>4.1625210499999996</v>
+      </c>
+      <c r="S14" s="1">
+        <v>4.2255461250000002</v>
+      </c>
+      <c r="T14" s="1">
+        <v>4.0639447749999995</v>
+      </c>
+      <c r="U14" s="1">
+        <v>4.0449411749999999</v>
+      </c>
+      <c r="V14" s="1">
+        <v>4.0784871750000002</v>
+      </c>
+      <c r="W14" s="1">
+        <v>4.1240075000000003</v>
+      </c>
+      <c r="X14" s="1">
+        <v>3.4756198500000002</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>3.3080485749999999</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>2.8377537999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-0.35441602500000002</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-0.36615407500000002</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-0.38533719999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-0.39823537500000006</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-0.37262044999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-0.40184025000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-0.34851437499999999</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-0.15887552500000002</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-2.8555549999999999E-2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-2.1267699999999997E-2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>4.8640025000000003E-2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1.6332275E-2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>4.1557750000000013E-3</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2.8385000000000007E-3</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>-4.1002574999999999E-2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>-7.1271250000000008E-2</v>
+      </c>
+      <c r="S15" s="1">
+        <v>-0.10509885000000001</v>
+      </c>
+      <c r="T15" s="1">
+        <v>-0.13348537500000002</v>
+      </c>
+      <c r="U15" s="1">
+        <v>-0.11596852499999999</v>
+      </c>
+      <c r="V15" s="1">
+        <v>-0.142936125</v>
+      </c>
+      <c r="W15" s="1">
+        <v>-0.10171939999999999</v>
+      </c>
+      <c r="X15" s="1">
+        <v>-0.18788199999999999</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>-0.23595852500000003</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>-0.25609994999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.6577682499999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.5473530999999998</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.496663375</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.4830118750000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.5446116249999999</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.677462225</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2.7936986749999999</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3.410644</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3.6666159000000005</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3.6133793000000001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3.7786255499999997</v>
+      </c>
+      <c r="N16" s="1">
+        <v>4.0076523499999999</v>
+      </c>
+      <c r="O16" s="1">
+        <v>3.9760971249999999</v>
+      </c>
+      <c r="P16" s="1">
+        <v>3.6932444000000002</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>3.2134933750000001</v>
+      </c>
+      <c r="R16" s="1">
+        <v>3.0708448750000001</v>
+      </c>
+      <c r="S16" s="1">
+        <v>2.9192482000000002</v>
+      </c>
+      <c r="T16" s="1">
+        <v>2.8408916</v>
+      </c>
+      <c r="U16" s="1">
+        <v>2.8092245</v>
+      </c>
+      <c r="V16" s="1">
+        <v>2.8961414500000005</v>
+      </c>
+      <c r="W16" s="1">
+        <v>2.7870687749999998</v>
+      </c>
+      <c r="X16" s="1">
+        <v>2.45252245</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>2.0081481999999999</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>1.7969970500000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-1.4980621000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-1.5084406250000002</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-1.5225397250000001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-1.5307922</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-1.5102589750000002</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-1.4743118</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-1.2530950249999999</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-1.034019475</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-1.014549275</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-0.99838004999999996</v>
+      </c>
+      <c r="M17" s="1">
+        <v>-0.98187512500000007</v>
+      </c>
+      <c r="N17" s="1">
+        <v>-0.97102100000000002</v>
+      </c>
+      <c r="O17" s="1">
+        <v>-0.99393207500000003</v>
+      </c>
+      <c r="P17" s="1">
+        <v>-1.0322570499999999</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>-1.1348673499999999</v>
+      </c>
+      <c r="R17" s="1">
+        <v>-1.1857248500000002</v>
+      </c>
+      <c r="S17" s="1">
+        <v>-1.2275787250000001</v>
+      </c>
+      <c r="T17" s="1">
+        <v>-1.231548825</v>
+      </c>
+      <c r="U17" s="1">
+        <v>-1.2548295999999999</v>
+      </c>
+      <c r="V17" s="1">
+        <v>-1.297001625</v>
+      </c>
+      <c r="W17" s="1">
+        <v>-1.3793106000000002</v>
+      </c>
+      <c r="X17" s="1">
+        <v>-1.4379170750000001</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>-1.4581145999999998</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>-1.48631285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.5929861250000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.4650451750000002</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.4250022</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.3337386499999999</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.371470075</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.34602545</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.336912125</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.5211088000000001</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.318706275</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.3668435249999997</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1.5256656500000001</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1.7051399250000001</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1.77807235</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1.752993325</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1.6987171000000001</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1.7702726500000001</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1.788930425</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1.7287142000000002</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1.7317344750000001</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1.8502387750000002</v>
+      </c>
+      <c r="W18" s="1">
+        <v>1.9376593499999999</v>
+      </c>
+      <c r="X18" s="1">
+        <v>1.8164919750000001</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1.5078566499999999</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>1.5959403999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4.5947250000000009E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-4.2367275000000003E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-5.4249425000000004E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-6.8814774999999995E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-6.5527824999999998E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-7.5716375000000002E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-0.14245715</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-4.6392475000000002E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>-7.1494374999999999E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-2.4537074999999998E-2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>-4.5697500000000009E-4</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1.9229749999999997E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>6.5852325000000003E-2</v>
+      </c>
+      <c r="P19" s="1">
+        <v>6.6692625000000005E-2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>5.1080600000000004E-2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.11737725</v>
+      </c>
+      <c r="S19" s="1">
+        <v>9.9641124999999997E-2</v>
+      </c>
+      <c r="T19" s="1">
+        <v>8.6579425000000002E-2</v>
+      </c>
+      <c r="U19" s="1">
+        <v>7.1702500000000002E-2</v>
+      </c>
+      <c r="V19" s="1">
+        <v>7.3378100000000002E-2</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0.103712525</v>
+      </c>
+      <c r="X19" s="1">
+        <v>9.3345250000000005E-2</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>-9.1851999999999993E-3</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>-1.4983425E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.4150249749999997</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.2285291250000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.1536563749999997</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.1754366250000001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.181667225</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2.2410136000000001</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2.660627775</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3.1339471749999999</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3.353572175</v>
+      </c>
+      <c r="L20" s="1">
+        <v>3.4841389</v>
+      </c>
+      <c r="M20" s="1">
+        <v>3.4118694500000002</v>
+      </c>
+      <c r="N20" s="1">
+        <v>3.5353861499999999</v>
+      </c>
+      <c r="O20" s="1">
+        <v>3.6848194249999997</v>
+      </c>
+      <c r="P20" s="1">
+        <v>3.5678139499999997</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>3.4709388749999999</v>
+      </c>
+      <c r="R20" s="1">
+        <v>3.2160250249999995</v>
+      </c>
+      <c r="S20" s="1">
+        <v>3.13312495</v>
+      </c>
+      <c r="T20" s="1">
+        <v>3.1127389000000001</v>
+      </c>
+      <c r="U20" s="1">
+        <v>3.18313055</v>
+      </c>
+      <c r="V20" s="1">
+        <v>3.3947527499999999</v>
+      </c>
+      <c r="W20" s="1">
+        <v>3.661608325</v>
+      </c>
+      <c r="X20" s="1">
+        <v>3.3368277749999997</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>3.00527495</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>2.6097249749999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-0.21343779999999998</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-0.23850399999999999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-0.244623375</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-0.24159720000000001</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-0.24969662500000001</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-0.25664807499999998</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-8.1140925000000003E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>7.1614175000000002E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.16292382500000002</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.172270275</v>
+      </c>
+      <c r="M21" s="1">
+        <v>7.3036950000000003E-2</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.17750479999999999</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.19082147499999999</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.18334095</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.14510162500000001</v>
+      </c>
+      <c r="R21" s="1">
+        <v>6.2214350000000002E-2</v>
+      </c>
+      <c r="S21" s="1">
+        <v>3.1227199999999997E-2</v>
+      </c>
+      <c r="T21" s="1">
+        <v>3.1124275E-2</v>
+      </c>
+      <c r="U21" s="1">
+        <v>3.1763550000000002E-2</v>
+      </c>
+      <c r="V21" s="1">
+        <v>6.3445000000000001E-2</v>
+      </c>
+      <c r="W21" s="1">
+        <v>9.1021475000000004E-2</v>
+      </c>
+      <c r="X21" s="1">
+        <v>1.2456649999999998E-2</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>-9.4002299999999997E-2</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>-0.15804747499999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.78947255000000005</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.71119520000000003</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.66783570000000003</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.64670179999999999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.65675454999999994</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.71899427500000002</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.85882970000000003</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1.0110045249999999</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1.1006927499999999</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.1578077250000001</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1.226235475</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1.2556027249999999</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1.2368101249999999</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1.1937453</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1.1217741999999999</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1.0593009250000001</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1.0644888750000001</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1.1326908250000001</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1.19551045</v>
+      </c>
+      <c r="V22" s="1">
+        <v>1.2311898750000001</v>
+      </c>
+      <c r="W22" s="1">
+        <v>1.3675907999999999</v>
+      </c>
+      <c r="X22" s="1">
+        <v>1.219894375</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>1.109378875</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0.94599145000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-0.26560139999999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-0.28563222499999996</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-0.29835869999999998</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-0.30288532499999998</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-0.29501102499999998</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-0.29599880000000001</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-0.23344890000000001</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-0.19380030000000001</v>
+      </c>
+      <c r="K23" s="1">
+        <v>-0.16307679999999999</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-0.1259806</v>
+      </c>
+      <c r="M23" s="1">
+        <v>-0.12663545000000001</v>
+      </c>
+      <c r="N23" s="1">
+        <v>-0.135510825</v>
+      </c>
+      <c r="O23" s="1">
+        <v>-0.15913077499999997</v>
+      </c>
+      <c r="P23" s="1">
+        <v>-0.16378757499999999</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>-0.18373102499999999</v>
+      </c>
+      <c r="R23" s="1">
+        <v>-0.18390332499999998</v>
+      </c>
+      <c r="S23" s="1">
+        <v>-0.186653075</v>
+      </c>
+      <c r="T23" s="1">
+        <v>-0.14438960000000001</v>
+      </c>
+      <c r="U23" s="1">
+        <v>-0.13024705</v>
+      </c>
+      <c r="V23" s="1">
+        <v>-0.1483797</v>
+      </c>
+      <c r="W23" s="1">
+        <v>-0.12296225</v>
+      </c>
+      <c r="X23" s="1">
+        <v>-0.156259975</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>-0.17891622500000001</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>-0.20210729999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4.9861533500000004</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5.0594761000000004</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5.4252658</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4.9351219999999998</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4.8686276500000005</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4.7061052500000002</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4.7862577500000008</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5.1868447250000003</v>
+      </c>
+      <c r="K24" s="1">
+        <v>4.6099559750000001</v>
+      </c>
+      <c r="L24" s="1">
+        <v>3.5282588500000003</v>
+      </c>
+      <c r="M24" s="1">
+        <v>4.8996429750000008</v>
+      </c>
+      <c r="N24" s="1">
+        <v>5.4013166500000009</v>
+      </c>
+      <c r="O24" s="1">
+        <v>5.3910580750000001</v>
+      </c>
+      <c r="P24" s="1">
+        <v>5.5920758249999993</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>4.4351036749999997</v>
+      </c>
+      <c r="R24" s="1">
+        <v>5.9277377250000001</v>
+      </c>
+      <c r="S24" s="1">
+        <v>5.4188489749999995</v>
+      </c>
+      <c r="T24" s="1">
+        <v>5.2614098499999997</v>
+      </c>
+      <c r="U24" s="1">
+        <v>5.3214596499999995</v>
+      </c>
+      <c r="V24" s="1">
+        <v>5.8361431499999998</v>
+      </c>
+      <c r="W24" s="1">
+        <v>6.4054348750000001</v>
+      </c>
+      <c r="X24" s="1">
+        <v>6.3574487</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>6.2984342499999997</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>6.3604046250000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-0.46730312500000004</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-0.28263492499999998</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-0.35722947500000002</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-0.28133379999999997</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-0.32272602500000003</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-0.17318230000000001</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-0.58364519999999998</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-0.45890677499999999</v>
+      </c>
+      <c r="K25" s="1">
+        <v>-0.34028819999999999</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-0.40042485</v>
+      </c>
+      <c r="M25" s="1">
+        <v>-0.41470552500000002</v>
+      </c>
+      <c r="N25" s="1">
+        <v>-0.37762994999999999</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.18914887499999999</v>
+      </c>
+      <c r="P25" s="1">
+        <v>9.5986000000000002E-2</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>-0.53701949999999998</v>
+      </c>
+      <c r="R25" s="1">
+        <v>-0.18086972499999998</v>
+      </c>
+      <c r="S25" s="1">
+        <v>-0.20839549999999998</v>
+      </c>
+      <c r="T25" s="1">
+        <v>-0.12129425000000001</v>
+      </c>
+      <c r="U25" s="1">
+        <v>5.6023750000000032E-3</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0.36861244999999998</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0.822299275</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0.81901802499999998</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0.77727127500000004</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0.81641635000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>9.1160381000000008</v>
+      </c>
+      <c r="D26" s="1">
+        <v>9.0078425249999992</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8.8700635499999994</v>
+      </c>
+      <c r="F26" s="1">
+        <v>8.8157579999999989</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8.7608967</v>
+      </c>
+      <c r="H26" s="1">
+        <v>8.9540927749999994</v>
+      </c>
+      <c r="I26" s="1">
+        <v>10.325363875000001</v>
+      </c>
+      <c r="J26" s="1">
+        <v>10.90676165</v>
+      </c>
+      <c r="K26" s="1">
+        <v>11.6277461</v>
+      </c>
+      <c r="L26" s="1">
+        <v>11.064959999999999</v>
+      </c>
+      <c r="M26" s="1">
+        <v>11.136348250000001</v>
+      </c>
+      <c r="N26" s="1">
+        <v>11.22010015</v>
+      </c>
+      <c r="O26" s="1">
+        <v>11.587189175000001</v>
+      </c>
+      <c r="P26" s="1">
+        <v>11.469826249999999</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>11.2180178</v>
+      </c>
+      <c r="R26" s="1">
+        <v>11.131905100000001</v>
+      </c>
+      <c r="S26" s="1">
+        <v>11.2741282</v>
+      </c>
+      <c r="T26" s="1">
+        <v>11.382044775000001</v>
+      </c>
+      <c r="U26" s="1">
+        <v>10.8963444</v>
+      </c>
+      <c r="V26" s="1">
+        <v>11.026208674999999</v>
+      </c>
+      <c r="W26" s="1">
+        <v>11.117877249999999</v>
+      </c>
+      <c r="X26" s="1">
+        <v>10.4659221</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>9.2478473250000004</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>9.2559039500000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.42049009999999998</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.3915999</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.294375</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.26534672499999995</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.24395739999999999</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.30632019999999999</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1.0086921</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1.3471724999999999</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1.72814785</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1.6475922750000001</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1.6070366999999999</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1.5868979999999999</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1.7150927</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1.5743969249999998</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1.446064325</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1.3435638250000002</v>
+      </c>
+      <c r="S27" s="1">
+        <v>1.3299515750000002</v>
+      </c>
+      <c r="T27" s="1">
+        <v>1.3473137750000002</v>
+      </c>
+      <c r="U27" s="1">
+        <v>1.1206383999999998</v>
+      </c>
+      <c r="V27" s="1">
+        <v>1.0270261749999998</v>
+      </c>
+      <c r="W27" s="1">
+        <v>1.088693275</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0.76188412499999991</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0.33437519999999998</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0.358263475</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.30744302499999998</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.28995495000000004</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.28159630000000002</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.27517862500000001</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.27996699999999997</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.29975452499999999</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.356284675</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.40907579999999999</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.44393587500000004</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.46281260000000002</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.49516472500000003</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.50663717499999994</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.49673837499999995</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.45706642500000005</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.40065022499999997</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.40144137499999999</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0.40501960000000004</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0.39450155000000003</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0.41315042499999999</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0.44170340000000002</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0.451181675</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0.392682525</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0.36055852500000002</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0.317606375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.11385355</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.1153362</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.117204375</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.11760145</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.12270192499999999</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.11500292500000001</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.10523855000000001</v>
+      </c>
+      <c r="J29" s="1">
+        <v>9.4298174999999998E-2</v>
+      </c>
+      <c r="K29" s="1">
+        <v>7.6484849999999993E-2</v>
+      </c>
+      <c r="L29" s="1">
+        <v>5.2494500000000006E-2</v>
+      </c>
+      <c r="M29" s="1">
+        <v>5.8135574999999995E-2</v>
+      </c>
+      <c r="N29" s="1">
+        <v>6.9989675000000001E-2</v>
+      </c>
+      <c r="O29" s="1">
+        <v>5.0768900000000006E-2</v>
+      </c>
+      <c r="P29" s="1">
+        <v>7.2179124999999997E-2</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>8.2291475000000003E-2</v>
+      </c>
+      <c r="R29" s="1">
+        <v>8.2595774999999996E-2</v>
+      </c>
+      <c r="S29" s="1">
+        <v>7.8505500000000006E-2</v>
+      </c>
+      <c r="T29" s="1">
+        <v>8.0702225000000002E-2</v>
+      </c>
+      <c r="U29" s="1">
+        <v>7.2934899999999997E-2</v>
+      </c>
+      <c r="V29" s="1">
+        <v>8.9013949999999994E-2</v>
+      </c>
+      <c r="W29" s="1">
+        <v>9.4356024999999996E-2</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0.109109575</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>9.9653975000000006E-2</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0.101170975</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B29" xr:uid="{682180CB-2F09-4E64-AEE8-1870CC98E9E7}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Q"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F772136-AC5F-40F7-B31A-E69ACBC232F2}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Z29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:Z29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>6</v>
+      </c>
+      <c r="J1">
+        <v>7</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>10</v>
+      </c>
+      <c r="N1">
+        <v>11</v>
+      </c>
+      <c r="O1">
+        <v>12</v>
+      </c>
+      <c r="P1">
+        <v>13</v>
+      </c>
+      <c r="Q1">
+        <v>14</v>
+      </c>
+      <c r="R1">
+        <v>15</v>
+      </c>
+      <c r="S1">
+        <v>16</v>
+      </c>
+      <c r="T1">
+        <v>17</v>
+      </c>
+      <c r="U1">
+        <v>18</v>
+      </c>
+      <c r="V1">
+        <v>19</v>
+      </c>
+      <c r="W1">
+        <v>20</v>
+      </c>
+      <c r="X1">
+        <v>21</v>
+      </c>
+      <c r="Y1">
+        <v>22</v>
+      </c>
+      <c r="Z1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6.1369134250000004</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.0261887250000008</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.9613904</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5.9656363749999999</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5.7108004250000004</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5.6066645249999993</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5.2752338750000005</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5.2139454000000001</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5.1835444000000006</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5.2079661999999995</v>
+      </c>
+      <c r="M2" s="1">
+        <v>5.0423336250000004</v>
+      </c>
+      <c r="N2" s="1">
+        <v>4.9297293500000006</v>
+      </c>
+      <c r="O2" s="1">
+        <v>4.897369275</v>
+      </c>
+      <c r="P2" s="1">
+        <v>5.2261895000000003</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>5.3057580999999994</v>
+      </c>
+      <c r="R2" s="1">
+        <v>5.2582867249999996</v>
+      </c>
+      <c r="S2" s="1">
+        <v>5.1163939249999997</v>
+      </c>
+      <c r="T2" s="1">
+        <v>5.2495457999999999</v>
+      </c>
+      <c r="U2" s="1">
+        <v>5.2405548</v>
+      </c>
+      <c r="V2" s="1">
+        <v>5.4011363000000001</v>
+      </c>
+      <c r="W2" s="1">
+        <v>5.2522941750000003</v>
+      </c>
+      <c r="X2" s="1">
+        <v>5.1431081249999995</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>4.9911918499999999</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>4.9547355250000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.41436359999999994</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.43573315000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.45148529999999998</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.38585477499999998</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.32711362499999996</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.34921542500000002</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.23354755000000002</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.18903555</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.26717800000000003</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.30582432500000001</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.26249092500000004</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.26837620000000001</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.28398342499999996</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.36015539999999996</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.32387602500000001</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.35032697499999998</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.25904082500000003</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.26523542499999997</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.22651225</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.2759817</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.27700612499999999</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.22824212499999999</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0.20727142500000001</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0.21891645000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.4145725499999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.315168275</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.2528200249999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.1503898750000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.129753</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.0952644</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.1707168000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.3962159750000001</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.6020547999999999</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.766439525</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.7392370749999999</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.75214085</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.770747125</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1.7029063</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.516264375</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1.5066622499999998</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1.4745044</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1.4742863750000001</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1.5675360250000001</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1.7248535</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1.7481980749999999</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1.7807916499999998</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1.5754940500000001</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>1.333629875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-3.4440125000000002E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-3.8057250000000001E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-3.8032974999999997E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-4.8995375000000001E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-4.5855800000000002E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-6.9204550000000004E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-6.3844250000000005E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4.2425224999999997E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>7.6734875000000008E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>9.1465774999999999E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2.43453E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-3.2486599999999997E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>-3.8997924999999996E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-3.4236124999999999E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-5.8060424999999999E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-4.1580525E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <v>-2.5406650000000003E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <v>-8.4315250000000005E-3</v>
+      </c>
+      <c r="U5" s="1">
+        <v>7.6880475000000004E-2</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.134144175</v>
+      </c>
+      <c r="W5" s="1">
+        <v>6.6796524999999995E-2</v>
+      </c>
+      <c r="X5" s="1">
+        <v>3.8130725000000004E-2</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>-2.4918675000000001E-2</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>-5.1451425000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.4439404500000004</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.2259472000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.0220777999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.9971039249999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.008995525</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.9754719000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.2938674750000003</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3.7997194500000004</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4.0657555999999992</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4.0918139250000003</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4.3457277999999997</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4.7177527999999995</v>
+      </c>
+      <c r="O6" s="1">
+        <v>4.6573556749999998</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4.3873444999999993</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3.9433694500000001</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3.7067472500000003</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3.572808325</v>
+      </c>
+      <c r="T6" s="1">
+        <v>3.6761610500000002</v>
+      </c>
+      <c r="U6" s="1">
+        <v>3.7316916750000004</v>
+      </c>
+      <c r="V6" s="1">
+        <v>3.847844475</v>
+      </c>
+      <c r="W6" s="1">
+        <v>3.8850971249999997</v>
+      </c>
+      <c r="X6" s="1">
+        <v>4.0062416249999995</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>3.7733833750000003</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>3.3938333250000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-0.15735117500000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-0.30043019999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-0.34902430000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.36692922500000003</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-0.36298429999999998</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-0.40227635</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-0.30805132499999999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-9.3557125000000005E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-8.1201949999999995E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-9.6183800000000014E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-3.6831625E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-1.8632100000000002E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-8.1198124999999996E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-0.21697537500000003</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-0.31325689999999995</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-0.33837434999999999</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-0.30144375000000001</v>
+      </c>
+      <c r="T7" s="1">
+        <v>-0.30628105</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-0.26489024999999999</v>
+      </c>
+      <c r="V7" s="1">
+        <v>-0.25901742500000002</v>
+      </c>
+      <c r="W7" s="1">
+        <v>-0.28575719999999999</v>
+      </c>
+      <c r="X7" s="1">
+        <v>-0.28087079999999998</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>-0.3390764</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>-0.38538222499999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.34770514999999996</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.26515624999999998</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.193112275</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.23932730000000002</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.198475925</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.17906145000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.33569525</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.67611377500000003</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.8022549000000001</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.85965884999999997</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.91530604999999998</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.84145360000000002</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.89083872500000005</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.84028144999999999</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.67152909999999999</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.63464182499999999</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.59345890000000001</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.67463147499999998</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0.83234442499999994</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0.88329527500000005</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0.86137020000000009</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0.98938087500000005</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0.76044137500000009</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0.56610772499999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-0.51339170000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-0.52415045000000005</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-0.53369137499999997</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.53860074999999996</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-0.53943792499999998</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-0.57614279999999995</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-0.53833540000000002</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-0.375253275</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-0.34414007499999999</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-0.39131474999999999</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-0.41789205000000001</v>
+      </c>
+      <c r="N9" s="1">
+        <v>-0.50170902500000003</v>
+      </c>
+      <c r="O9" s="1">
+        <v>-0.50885424999999995</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-0.535095125</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>-0.54196850000000008</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-0.55878404999999998</v>
+      </c>
+      <c r="S9" s="1">
+        <v>-0.54602907499999997</v>
+      </c>
+      <c r="T9" s="1">
+        <v>-0.48896220000000001</v>
+      </c>
+      <c r="U9" s="1">
+        <v>-0.39225020000000005</v>
+      </c>
+      <c r="V9" s="1">
+        <v>-0.40231367500000004</v>
+      </c>
+      <c r="W9" s="1">
+        <v>-0.42859425000000001</v>
+      </c>
+      <c r="X9" s="1">
+        <v>-0.40717334999999999</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>-0.46398567499999999</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>-0.48620352499999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.089545475</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.8636773999999998</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.60874505</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.5179048999999996</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.5131741999999999</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2.464449525</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.5936668999999997</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3.0654648500000001</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3.5769099500000001</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3.9837512749999999</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4.3356887250000007</v>
+      </c>
+      <c r="N10" s="1">
+        <v>4.5747726999999996</v>
+      </c>
+      <c r="O10" s="1">
+        <v>4.6986683499999993</v>
+      </c>
+      <c r="P10" s="1">
+        <v>4.5461088500000004</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>4.2406936999999996</v>
+      </c>
+      <c r="R10" s="1">
+        <v>4.0790861999999999</v>
+      </c>
+      <c r="S10" s="1">
+        <v>3.9640602500000002</v>
+      </c>
+      <c r="T10" s="1">
+        <v>3.8964583250000002</v>
+      </c>
+      <c r="U10" s="1">
+        <v>3.8940779999999999</v>
+      </c>
+      <c r="V10" s="1">
+        <v>3.9855111249999999</v>
+      </c>
+      <c r="W10" s="1">
+        <v>4.1705779999999999</v>
+      </c>
+      <c r="X10" s="1">
+        <v>4.5421170000000002</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>4.2672431499999997</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>3.6919060250000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-0.25219637500000003</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.28130474999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-0.33475935000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.372100975</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-0.37770362500000004</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-0.40970875000000001</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-0.43028677500000001</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-0.34203277499999996</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-0.249358475</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-0.17491182499999999</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-0.124842275</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-0.10157387499999999</v>
+      </c>
+      <c r="O11" s="1">
+        <v>-0.12865569999999998</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-0.15899037500000002</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-0.211617375</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-0.2102723</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-0.22335492500000001</v>
+      </c>
+      <c r="T11" s="1">
+        <v>-0.21155857500000003</v>
+      </c>
+      <c r="U11" s="1">
+        <v>-0.18339707499999999</v>
+      </c>
+      <c r="V11" s="1">
+        <v>-0.18737369999999998</v>
+      </c>
+      <c r="W11" s="1">
+        <v>-0.16913149999999999</v>
+      </c>
+      <c r="X11" s="1">
+        <v>-8.3908125E-2</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>-0.131523375</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>-0.18410735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.8546610999999995</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.8965388500000007</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.6859110499999996</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4.6986138749999995</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4.5949972750000008</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4.5427554749999999</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4.3075388749999997</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4.8017916500000002</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5.0368889750000001</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5.3118667749999995</v>
+      </c>
+      <c r="M12" s="1">
+        <v>5.4295444499999999</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5.6377195249999996</v>
+      </c>
+      <c r="O12" s="1">
+        <v>5.5944609500000002</v>
+      </c>
+      <c r="P12" s="1">
+        <v>5.3572805250000002</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>4.9204055000000002</v>
+      </c>
+      <c r="R12" s="1">
+        <v>5.0373333750000002</v>
+      </c>
+      <c r="S12" s="1">
+        <v>4.9263471499999998</v>
+      </c>
+      <c r="T12" s="1">
+        <v>4.791758325</v>
+      </c>
+      <c r="U12" s="1">
+        <v>4.6715971249999999</v>
+      </c>
+      <c r="V12" s="1">
+        <v>4.971877825</v>
+      </c>
+      <c r="W12" s="1">
+        <v>4.823741675</v>
+      </c>
+      <c r="X12" s="1">
+        <v>5.1034305250000003</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>4.8911888500000007</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>4.6304971999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.60215639999999993</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.648923625</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.60077612499999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.658505275</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.63065529999999992</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.67562497499999996</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.51680999999999999</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.68472332499999999</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.69589557499999999</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.87500415000000009</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.80192195000000011</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.86081719999999995</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.82751112500000001</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.80877195000000002</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.66278972500000011</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.7033161</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.62959642500000002</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0.64615054999999999</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0.51930695000000004</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0.68915387499999992</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0.6060405499999999</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0.63039780000000001</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0.668682475</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0.59797497499999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.4736837</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.3378212999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.3068104249999997</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.2898346750000003</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.3116878249999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2.3246758500000002</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2.4793491999999997</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3.0872969000000001</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3.5129055999999999</v>
+      </c>
+      <c r="L14" s="1">
+        <v>3.8746440500000001</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4.0809989</v>
+      </c>
+      <c r="N14" s="1">
+        <v>4.1017936249999991</v>
+      </c>
+      <c r="O14" s="1">
+        <v>4.2198124000000004</v>
+      </c>
+      <c r="P14" s="1">
+        <v>4.1122472500000002</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>3.7203650000000001</v>
+      </c>
+      <c r="R14" s="1">
+        <v>3.7330711499999998</v>
+      </c>
+      <c r="S14" s="1">
+        <v>3.7350424499999999</v>
+      </c>
+      <c r="T14" s="1">
+        <v>3.5665923249999998</v>
+      </c>
+      <c r="U14" s="1">
+        <v>3.5199006750000001</v>
+      </c>
+      <c r="V14" s="1">
+        <v>3.6789337999999998</v>
+      </c>
+      <c r="W14" s="1">
+        <v>3.6050947000000004</v>
+      </c>
+      <c r="X14" s="1">
+        <v>3.3357476749999999</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>3.2047414749999996</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>2.7142937749999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-0.29172975000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-0.31430377499999995</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-0.3503501</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-0.34679032500000001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-0.36155812500000006</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-0.35819032500000003</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-0.39154470000000002</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-0.29699019999999998</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-0.256449125</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-0.19025877499999999</v>
+      </c>
+      <c r="M15" s="1">
+        <v>-0.19658939999999997</v>
+      </c>
+      <c r="N15" s="1">
+        <v>-0.183004625</v>
+      </c>
+      <c r="O15" s="1">
+        <v>-0.20187235000000001</v>
+      </c>
+      <c r="P15" s="1">
+        <v>-0.22299287500000001</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>-0.27944019999999997</v>
+      </c>
+      <c r="R15" s="1">
+        <v>-0.28979235000000003</v>
+      </c>
+      <c r="S15" s="1">
+        <v>-0.26485284999999997</v>
+      </c>
+      <c r="T15" s="1">
+        <v>-0.28074650000000001</v>
+      </c>
+      <c r="U15" s="1">
+        <v>-0.254792825</v>
+      </c>
+      <c r="V15" s="1">
+        <v>-0.29816187499999997</v>
+      </c>
+      <c r="W15" s="1">
+        <v>-0.27082267500000001</v>
+      </c>
+      <c r="X15" s="1">
+        <v>-0.28830597499999999</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>-0.29158339999999994</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>-0.329544275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.5458145000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.4703673999999998</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.3798420499999997</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.3597284250000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.4137751000000001</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.519546525</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2.2884242750000001</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2.7402674999999999</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3.0263358500000002</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3.0397371</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3.2942958500000001</v>
+      </c>
+      <c r="N16" s="1">
+        <v>3.4312371500000003</v>
+      </c>
+      <c r="O16" s="1">
+        <v>3.0349223000000003</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2.5951921000000002</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2.2122498749999999</v>
+      </c>
+      <c r="R16" s="1">
+        <v>2.1084926249999998</v>
+      </c>
+      <c r="S16" s="1">
+        <v>2.07551065</v>
+      </c>
+      <c r="T16" s="1">
+        <v>2.0622228000000002</v>
+      </c>
+      <c r="U16" s="1">
+        <v>2.0752029249999997</v>
+      </c>
+      <c r="V16" s="1">
+        <v>2.149251375</v>
+      </c>
+      <c r="W16" s="1">
+        <v>2.2043890500000001</v>
+      </c>
+      <c r="X16" s="1">
+        <v>2.2900747749999999</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>2.063397675</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>1.819740275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-1.5086085000000002</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-1.5307922</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-1.5307922</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-1.5307922</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-1.5308482000000001</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-1.5181198</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-1.388626125</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-1.3505518999999999</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-1.3066238750000001</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-1.3015832250000001</v>
+      </c>
+      <c r="M17" s="1">
+        <v>-1.243329025</v>
+      </c>
+      <c r="N17" s="1">
+        <v>-1.2419584499999998</v>
+      </c>
+      <c r="O17" s="1">
+        <v>-1.3641753999999999</v>
+      </c>
+      <c r="P17" s="1">
+        <v>-1.4388402249999999</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>-1.4999084250000001</v>
+      </c>
+      <c r="R17" s="1">
+        <v>-1.46429695</v>
+      </c>
+      <c r="S17" s="1">
+        <v>-1.4364344249999998</v>
+      </c>
+      <c r="T17" s="1">
+        <v>-1.4259720000000002</v>
+      </c>
+      <c r="U17" s="1">
+        <v>-1.3879267249999998</v>
+      </c>
+      <c r="V17" s="1">
+        <v>-1.44166565</v>
+      </c>
+      <c r="W17" s="1">
+        <v>-1.4778925250000001</v>
+      </c>
+      <c r="X17" s="1">
+        <v>-1.4818089750000001</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>-1.5230153249999998</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>-1.5228475000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.5120516250000002</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.415428825</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.32472195</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.2394316249999999</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.200689975</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.2959253749999999</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.2684696500000001</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.4280376750000001</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.5834189249999999</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.7653924749999999</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1.8206670749999998</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1.9610392750000001</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1.9157852750000002</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1.845808975</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1.5733947750000001</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1.408399</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1.40133595</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1.4413590000000001</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1.5693989999999998</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1.6118349250000001</v>
+      </c>
+      <c r="W18" s="1">
+        <v>1.7042072500000001</v>
+      </c>
+      <c r="X18" s="1">
+        <v>1.8171927999999999</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1.7826051999999999</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>1.669320025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-5.8974775E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-8.4274425000000014E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-8.8360099999999997E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-0.104721125</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-0.11799962500000001</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-0.1038922</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-0.12452414999999999</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-9.1925300000000001E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2.8814050000000001E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>7.0383125000000005E-2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>3.4704125000000002E-2</v>
+      </c>
+      <c r="N19" s="1">
+        <v>8.3150799999999997E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>3.4868724999999996E-2</v>
+      </c>
+      <c r="P19" s="1">
+        <v>-2.616135E-2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>-8.1483975E-2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>-0.11158025000000001</v>
+      </c>
+      <c r="S19" s="1">
+        <v>-0.1028891</v>
+      </c>
+      <c r="T19" s="1">
+        <v>-8.8810374999999997E-2</v>
+      </c>
+      <c r="U19" s="1">
+        <v>-4.90617E-2</v>
+      </c>
+      <c r="V19" s="1">
+        <v>-5.3434324999999998E-2</v>
+      </c>
+      <c r="W19" s="1">
+        <v>-3.1755900000000004E-2</v>
+      </c>
+      <c r="X19" s="1">
+        <v>6.9649249999999994E-3</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>4.1942499999999931E-4</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>-6.9330750000000003E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.341867675</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.2154894499999997</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.1579203000000002</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.1629963499999998</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.17758085</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2.1913932999999997</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2.3981983749999998</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2.7152805999999998</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2.9629499999999998</v>
+      </c>
+      <c r="L20" s="1">
+        <v>3.1216860750000004</v>
+      </c>
+      <c r="M20" s="1">
+        <v>3.2596861000000001</v>
+      </c>
+      <c r="N20" s="1">
+        <v>3.3521333250000005</v>
+      </c>
+      <c r="O20" s="1">
+        <v>3.255897225</v>
+      </c>
+      <c r="P20" s="1">
+        <v>3.1022917000000003</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>2.9883361000000002</v>
+      </c>
+      <c r="R20" s="1">
+        <v>2.87425</v>
+      </c>
+      <c r="S20" s="1">
+        <v>2.8592444499999998</v>
+      </c>
+      <c r="T20" s="1">
+        <v>2.8559555250000002</v>
+      </c>
+      <c r="U20" s="1">
+        <v>2.9096693999999999</v>
+      </c>
+      <c r="V20" s="1">
+        <v>3.0324611250000002</v>
+      </c>
+      <c r="W20" s="1">
+        <v>3.0980554749999998</v>
+      </c>
+      <c r="X20" s="1">
+        <v>3.2428416499999999</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>2.9580249749999998</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>2.5440138999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-0.18604537500000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-0.23044097499999999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-0.24306384999999997</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-0.21761422499999999</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-0.21676140000000002</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-0.23866735</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-0.16071995</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-6.5644049999999995E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>-4.7013399999999997E-2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-4.0202299999999996E-2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>-1.9095100000000004E-2</v>
+      </c>
+      <c r="N21" s="1">
+        <v>8.3017500000000001E-3</v>
+      </c>
+      <c r="O21" s="1">
+        <v>-6.9376149999999998E-2</v>
+      </c>
+      <c r="P21" s="1">
+        <v>-0.119356225</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>-0.15208074999999999</v>
+      </c>
+      <c r="R21" s="1">
+        <v>-0.15267095</v>
+      </c>
+      <c r="S21" s="1">
+        <v>-0.16445514999999999</v>
+      </c>
+      <c r="T21" s="1">
+        <v>-0.15772825000000001</v>
+      </c>
+      <c r="U21" s="1">
+        <v>-0.12988959999999999</v>
+      </c>
+      <c r="V21" s="1">
+        <v>-0.128920225</v>
+      </c>
+      <c r="W21" s="1">
+        <v>-0.13823679999999999</v>
+      </c>
+      <c r="X21" s="1">
+        <v>-9.2960700000000007E-2</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>-0.14873582499999999</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>-0.1940856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.74426762499999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.67578914999999995</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.64270534999999995</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.62573040000000002</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.64185060000000005</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.6743249</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.73366672499999996</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.92918999999999996</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1.0978814749999999</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.16694605</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1.234179025</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1.331125925</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1.3684236250000001</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1.24948865</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1.184209125</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1.1550481000000001</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1.10767645</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1.1214601</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1.1924023749999999</v>
+      </c>
+      <c r="V22" s="1">
+        <v>1.1982463000000001</v>
+      </c>
+      <c r="W22" s="1">
+        <v>1.257690025</v>
+      </c>
+      <c r="X22" s="1">
+        <v>1.34838155</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>1.218485775</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>1.0134088000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-0.282503475</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-0.29819439999999997</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-0.30583052499999996</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-0.31443175000000001</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-0.30392517499999999</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-0.30902879999999999</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-0.28453747499999998</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-0.23132587499999999</v>
+      </c>
+      <c r="K23" s="1">
+        <v>-0.20299690000000001</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-0.21248867500000002</v>
+      </c>
+      <c r="M23" s="1">
+        <v>-0.228014625</v>
+      </c>
+      <c r="N23" s="1">
+        <v>-0.223231875</v>
+      </c>
+      <c r="O23" s="1">
+        <v>-0.21291527500000001</v>
+      </c>
+      <c r="P23" s="1">
+        <v>-0.23621027500000003</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>-0.25175015000000001</v>
+      </c>
+      <c r="R23" s="1">
+        <v>-0.24976499999999999</v>
+      </c>
+      <c r="S23" s="1">
+        <v>-0.24427702499999998</v>
+      </c>
+      <c r="T23" s="1">
+        <v>-0.21928097500000002</v>
+      </c>
+      <c r="U23" s="1">
+        <v>-0.18177212500000001</v>
+      </c>
+      <c r="V23" s="1">
+        <v>-0.18833399999999997</v>
+      </c>
+      <c r="W23" s="1">
+        <v>-0.19216530000000001</v>
+      </c>
+      <c r="X23" s="1">
+        <v>-0.18501652500000001</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>-0.21284852500000001</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>-0.22418202500000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6.3967419750000003</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5.4704724750000002</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4.8753390250000006</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4.8768762250000002</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4.8083726249999996</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4.7973746249999998</v>
+      </c>
+      <c r="I24" s="1">
+        <v>5.0717752000000003</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4.7948026500000003</v>
+      </c>
+      <c r="K24" s="1">
+        <v>4.1645165999999998</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4.1955310000000008</v>
+      </c>
+      <c r="M24" s="1">
+        <v>4.9593664500000001</v>
+      </c>
+      <c r="N24" s="1">
+        <v>5.02453065</v>
+      </c>
+      <c r="O24" s="1">
+        <v>5.0222544750000004</v>
+      </c>
+      <c r="P24" s="1">
+        <v>4.5542533499999998</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>4.8403035250000004</v>
+      </c>
+      <c r="R24" s="1">
+        <v>5.1684551499999998</v>
+      </c>
+      <c r="S24" s="1">
+        <v>5.0271303500000002</v>
+      </c>
+      <c r="T24" s="1">
+        <v>4.9067384000000001</v>
+      </c>
+      <c r="U24" s="1">
+        <v>5.4388362250000002</v>
+      </c>
+      <c r="V24" s="1">
+        <v>5.4494502499999999</v>
+      </c>
+      <c r="W24" s="1">
+        <v>5.0440728999999997</v>
+      </c>
+      <c r="X24" s="1">
+        <v>5.0950734500000001</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>5.4206234250000005</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>5.259667649999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.82602482499999996</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.23556595</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-0.14651439999999999</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-7.2687475000000001E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-4.3328350000000002E-2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>6.1658375000000001E-2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-0.23985307499999997</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-0.28103832500000003</v>
+      </c>
+      <c r="K25" s="1">
+        <v>-0.49722380000000005</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-0.646295175</v>
+      </c>
+      <c r="M25" s="1">
+        <v>-0.36299500000000001</v>
+      </c>
+      <c r="N25" s="1">
+        <v>-4.0135299999999999E-2</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.14935125000000002</v>
+      </c>
+      <c r="P25" s="1">
+        <v>-2.7245024999999996E-2</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.21383607500000001</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.14169345</v>
+      </c>
+      <c r="S25" s="1">
+        <v>3.5818574999999998E-2</v>
+      </c>
+      <c r="T25" s="1">
+        <v>-4.4096824999999999E-2</v>
+      </c>
+      <c r="U25" s="1">
+        <v>-4.2128499999999989E-3</v>
+      </c>
+      <c r="V25" s="1">
+        <v>-4.2441400000000004E-2</v>
+      </c>
+      <c r="W25" s="1">
+        <v>1.0776025000000002E-2</v>
+      </c>
+      <c r="X25" s="1">
+        <v>-1.7961025000000005E-2</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0.27140047499999997</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0.27799269999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>9.0920095500000002</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8.8938133750000006</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8.7906189000000001</v>
+      </c>
+      <c r="F26" s="1">
+        <v>8.8413133749999986</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8.7724241999999997</v>
+      </c>
+      <c r="H26" s="1">
+        <v>8.7436743000000003</v>
+      </c>
+      <c r="I26" s="1">
+        <v>9.4659077750000016</v>
+      </c>
+      <c r="J26" s="1">
+        <v>9.6845209749999999</v>
+      </c>
+      <c r="K26" s="1">
+        <v>10.216196524999999</v>
+      </c>
+      <c r="L26" s="1">
+        <v>10.078833574999999</v>
+      </c>
+      <c r="M26" s="1">
+        <v>10.62439515</v>
+      </c>
+      <c r="N26" s="1">
+        <v>10.556616549999999</v>
+      </c>
+      <c r="O26" s="1">
+        <v>10.003692375</v>
+      </c>
+      <c r="P26" s="1">
+        <v>9.6831331250000012</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>8.8499252750000004</v>
+      </c>
+      <c r="R26" s="1">
+        <v>8.9308974499999998</v>
+      </c>
+      <c r="S26" s="1">
+        <v>8.8664527</v>
+      </c>
+      <c r="T26" s="1">
+        <v>8.9950649999999985</v>
+      </c>
+      <c r="U26" s="1">
+        <v>9.2197911749999992</v>
+      </c>
+      <c r="V26" s="1">
+        <v>9.3036820999999996</v>
+      </c>
+      <c r="W26" s="1">
+        <v>9.2181253500000011</v>
+      </c>
+      <c r="X26" s="1">
+        <v>9.3592390749999996</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>9.0290918500000004</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>8.553809900000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.31159545</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.30395699999999998</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.27173447499999998</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.25076224999999996</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.24479152500000001</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.19270725</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.70563437500000004</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.74160742499999999</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.90605225</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.85133052499999995</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.98341372499999991</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.92008042500000009</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.74105264999999998</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.54382679999999994</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.26465177500000003</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0.37159847499999998</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0.41923995000000003</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0.512021175</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0.56313360000000001</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0.51410417499999994</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0.44410232500000002</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0.38757257500000003</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0.19867942500000002</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0.13437385000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.26339319999999999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.24356395000000003</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.24168600000000001</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.23549580000000003</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.24500554999999999</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.25142565</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.27497064999999998</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.33425110000000002</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.38323677499999997</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.43073129999999998</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.46312334999999999</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.47139785000000001</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.46732812499999998</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.44700695000000001</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.41883252500000001</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.40559492500000005</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0.41354959999999996</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0.39997012500000001</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0.38875362499999999</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0.39593177499999999</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0.41661622500000001</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0.42018227499999999</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0.38073762499999997</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0.32029122500000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.116383575</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.11084615</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.11109189999999999</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.11109189999999999</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.11109189999999999</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.11109189999999999</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.11109189999999999</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.10598745</v>
+      </c>
+      <c r="K29" s="1">
+        <v>9.8583749999999998E-2</v>
+      </c>
+      <c r="L29" s="1">
+        <v>8.9968350000000002E-2</v>
+      </c>
+      <c r="M29" s="1">
+        <v>8.9199674999999992E-2</v>
+      </c>
+      <c r="N29" s="1">
+        <v>7.8654725000000009E-2</v>
+      </c>
+      <c r="O29" s="1">
+        <v>8.7786925000000002E-2</v>
+      </c>
+      <c r="P29" s="1">
+        <v>9.8978750000000004E-2</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>9.1357900000000006E-2</v>
+      </c>
+      <c r="R29" s="1">
+        <v>9.7866450000000008E-2</v>
+      </c>
+      <c r="S29" s="1">
+        <v>9.1533675000000009E-2</v>
+      </c>
+      <c r="T29" s="1">
+        <v>9.0080875000000005E-2</v>
+      </c>
+      <c r="U29" s="1">
+        <v>9.4697400000000001E-2</v>
+      </c>
+      <c r="V29" s="1">
+        <v>9.4447575000000006E-2</v>
+      </c>
+      <c r="W29" s="1">
+        <v>9.4729625000000012E-2</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0.111791025</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0.1074382</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0.1170419</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B29" xr:uid="{2F772136-AC5F-40F7-B31A-E69ACBC232F2}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Q"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5866F9B7-148D-4987-830D-0DE958FA315C}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Z29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:Z29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>6</v>
+      </c>
+      <c r="J1">
+        <v>7</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>10</v>
+      </c>
+      <c r="N1">
+        <v>11</v>
+      </c>
+      <c r="O1">
+        <v>12</v>
+      </c>
+      <c r="P1">
+        <v>13</v>
+      </c>
+      <c r="Q1">
+        <v>14</v>
+      </c>
+      <c r="R1">
+        <v>15</v>
+      </c>
+      <c r="S1">
+        <v>16</v>
+      </c>
+      <c r="T1">
+        <v>17</v>
+      </c>
+      <c r="U1">
+        <v>18</v>
+      </c>
+      <c r="V1">
+        <v>19</v>
+      </c>
+      <c r="W1">
+        <v>20</v>
+      </c>
+      <c r="X1">
+        <v>21</v>
+      </c>
+      <c r="Y1">
+        <v>22</v>
+      </c>
+      <c r="Z1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.8205650999999996</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.5972342499999996</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.4605741249999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4.4796304500000002</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4.44015205</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4.4517679250000004</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4.4324802000000005</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4.5772069499999999</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4.8046954749999999</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5.1585976999999996</v>
+      </c>
+      <c r="M2" s="1">
+        <v>5.1406659999999995</v>
+      </c>
+      <c r="N2" s="1">
+        <v>5.0857887249999996</v>
+      </c>
+      <c r="O2" s="1">
+        <v>5.0093932250000002</v>
+      </c>
+      <c r="P2" s="1">
+        <v>5.1127673500000004</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>5.0641254250000003</v>
+      </c>
+      <c r="R2" s="1">
+        <v>5.1593089249999995</v>
+      </c>
+      <c r="S2" s="1">
+        <v>5.4333542499999998</v>
+      </c>
+      <c r="T2" s="1">
+        <v>5.1687431249999998</v>
+      </c>
+      <c r="U2" s="1">
+        <v>5.1204290499999994</v>
+      </c>
+      <c r="V2" s="1">
+        <v>5.1986471499999993</v>
+      </c>
+      <c r="W2" s="1">
+        <v>5.2927811250000003</v>
+      </c>
+      <c r="X2" s="1">
+        <v>4.9429193750000007</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>4.8050223499999998</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>4.7071074500000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.12979589999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.117764375</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8.9294449999999997E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9.2792849999999996E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.1197744</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.1228282</v>
+      </c>
+      <c r="I3" s="1">
+        <v>9.7141575000000008E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.127157725</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.145557725</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.26347665000000003</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.24662280000000003</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.26320604999999997</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.260422875</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.234968175</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.226995325</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.27891969999999999</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.33263262500000002</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.2011831</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.20227510000000001</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.209329825</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.19455367499999998</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.17473295</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0.20111545</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0.15878767500000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.1085649750000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.02049685</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.95441672500000008</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.91739727500000012</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.90447765000000002</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.88306109999999993</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.97577192499999998</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.2543173999999999</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.5431008249999998</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.726776925</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.7261995749999999</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.6939343</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.6350364749999999</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1.419658525</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.2730687999999999</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1.185671025</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1.176929425</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1.2119921</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1.3200911</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1.5244756499999998</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1.59308125</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1.6575339250000001</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1.5042734250000001</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>1.2370176500000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-0.12755612499999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.14397314999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-0.14753792500000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-0.1616533</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-0.1574808</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-0.157012025</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-0.13216497500000002</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-2.4654300000000001E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.8269349999999999E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4.2962899999999998E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-4.9875000000000006E-4</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-3.952075E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>-6.5167575000000005E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-0.1036691</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-9.6338375000000004E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-0.1023772</v>
+      </c>
+      <c r="S5" s="1">
+        <v>-0.10290004999999999</v>
+      </c>
+      <c r="T5" s="1">
+        <v>-9.4678675000000004E-2</v>
+      </c>
+      <c r="U5" s="1">
+        <v>-6.3923499999999998E-3</v>
+      </c>
+      <c r="V5" s="1">
+        <v>4.7723675E-2</v>
+      </c>
+      <c r="W5" s="1">
+        <v>-1.4858499999999995E-3</v>
+      </c>
+      <c r="X5" s="1">
+        <v>-1.4941550000000001E-2</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>-5.8269749999999995E-2</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>-0.10250479999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.04563505</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.82937555</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.760266675</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.6046482749999997</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.4388008750000001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.3966466749999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.4795267000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.9108977999999999</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3.2616722499999997</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3.5533249749999998</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3.7914778</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3.9016805249999997</v>
+      </c>
+      <c r="O6" s="1">
+        <v>3.782474975</v>
+      </c>
+      <c r="P6" s="1">
+        <v>3.4486638249999997</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3.1813056000000004</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3.0151139750000002</v>
+      </c>
+      <c r="S6" s="1">
+        <v>2.9823027499999997</v>
+      </c>
+      <c r="T6" s="1">
+        <v>3.0388610999999996</v>
+      </c>
+      <c r="U6" s="1">
+        <v>3.1661777500000001</v>
+      </c>
+      <c r="V6" s="1">
+        <v>3.2760305249999999</v>
+      </c>
+      <c r="W6" s="1">
+        <v>3.4880499999999994</v>
+      </c>
+      <c r="X6" s="1">
+        <v>3.6836026749999999</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>3.443563975</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>2.9882338500000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-0.46412387499999996</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-0.46433475000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-0.46958697500000002</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.51549972500000008</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-0.55346125000000002</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-0.5402325</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-0.53944027500000002</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-0.43432609999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-0.35735962499999996</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-0.29965269999999999</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-0.28151230000000005</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-0.29858095000000001</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-0.29103622499999998</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-0.33871782499999997</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-0.40462635000000002</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-0.40003657500000001</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-0.35921685000000003</v>
+      </c>
+      <c r="T7" s="1">
+        <v>-0.36590834999999999</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-0.31200517500000002</v>
+      </c>
+      <c r="V7" s="1">
+        <v>-0.36510977499999997</v>
+      </c>
+      <c r="W7" s="1">
+        <v>-0.36835004999999998</v>
+      </c>
+      <c r="X7" s="1">
+        <v>-0.39044772499999997</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>-0.44641225000000001</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>-0.49859290000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.36033172499999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.26865155000000002</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.19185007500000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.46103794999999997</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.30608477499999998</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8.2144999999999996E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.25449279999999996</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.57485494999999998</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.76372709999999999</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.91058209999999995</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.015053325</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.034290675</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.87909579999999998</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.66578057499999987</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.51975852499999997</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.49064402499999998</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.44976824999999998</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.49508557499999994</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0.67907915000000008</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0.79016385000000011</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0.85801832500000008</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1.1181497249999999</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0.82061217499999994</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0.51145210000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-0.56417300000000004</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-0.56476992500000012</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-0.56389565000000008</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.57026637499999999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-0.57551150000000006</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-0.62177672500000003</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-0.57841532500000004</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-0.44348520000000002</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-0.40041515000000005</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-0.43237002499999999</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-0.46179075000000003</v>
+      </c>
+      <c r="N9" s="1">
+        <v>-0.48172947499999996</v>
+      </c>
+      <c r="O9" s="1">
+        <v>-0.51463927499999995</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-0.55238437500000004</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>-0.54169977499999988</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-0.54985977500000005</v>
+      </c>
+      <c r="S9" s="1">
+        <v>-0.553166775</v>
+      </c>
+      <c r="T9" s="1">
+        <v>-0.51422852500000005</v>
+      </c>
+      <c r="U9" s="1">
+        <v>-0.40884309999999996</v>
+      </c>
+      <c r="V9" s="1">
+        <v>-0.38115872500000003</v>
+      </c>
+      <c r="W9" s="1">
+        <v>-0.40080132499999999</v>
+      </c>
+      <c r="X9" s="1">
+        <v>-0.39706577499999995</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>-0.44965675000000005</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>-0.48713172500000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.021485025</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.699704375</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.5611887499999999</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.4832392250000002</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.4301090750000003</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2.3136930000000002</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.4775767499999999</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2.9574307750000002</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3.44922905</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4.111254025</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4.62318695</v>
+      </c>
+      <c r="N10" s="1">
+        <v>4.9919919000000004</v>
+      </c>
+      <c r="O10" s="1">
+        <v>4.8157642999999997</v>
+      </c>
+      <c r="P10" s="1">
+        <v>4.1802900999999997</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3.7240590500000001</v>
+      </c>
+      <c r="R10" s="1">
+        <v>3.615759025</v>
+      </c>
+      <c r="S10" s="1">
+        <v>3.4376544500000001</v>
+      </c>
+      <c r="T10" s="1">
+        <v>3.3870531250000004</v>
+      </c>
+      <c r="U10" s="1">
+        <v>3.55628755</v>
+      </c>
+      <c r="V10" s="1">
+        <v>3.6796070250000001</v>
+      </c>
+      <c r="W10" s="1">
+        <v>4.0262226249999999</v>
+      </c>
+      <c r="X10" s="1">
+        <v>4.5062687500000003</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>4.3060189499999995</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>3.6189227750000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-0.39986339999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.43819530000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-0.45914300000000002</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.48634414999999998</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-0.51429849999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-0.56549194999999997</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-0.56186975000000006</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-0.43948172499999999</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-0.31486152500000003</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-0.15786717499999997</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-7.1741424999999998E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-9.3870999999999989E-3</v>
+      </c>
+      <c r="O11" s="1">
+        <v>-7.9044525000000004E-2</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-0.16221350000000001</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-0.22156604999999999</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-0.21927517500000002</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-0.25765150000000003</v>
+      </c>
+      <c r="T11" s="1">
+        <v>-0.25564122500000003</v>
+      </c>
+      <c r="U11" s="1">
+        <v>-0.2285297</v>
+      </c>
+      <c r="V11" s="1">
+        <v>-0.24402200000000002</v>
+      </c>
+      <c r="W11" s="1">
+        <v>-0.19223747500000002</v>
+      </c>
+      <c r="X11" s="1">
+        <v>-7.8275774999999992E-2</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>-0.13220367500000002</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>-0.20302935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.3326943999999994</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.3091833499999996</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.1865861249999998</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4.1598501250000002</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4.1815971249999997</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.934738925</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3.7861278</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4.0933833499999999</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4.4686276750000005</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4.9317972499999998</v>
+      </c>
+      <c r="M12" s="1">
+        <v>5.2083971499999997</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5.4619973999999996</v>
+      </c>
+      <c r="O12" s="1">
+        <v>5.3127721500000007</v>
+      </c>
+      <c r="P12" s="1">
+        <v>4.890505525</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>4.7152193499999999</v>
+      </c>
+      <c r="R12" s="1">
+        <v>4.6173333000000003</v>
+      </c>
+      <c r="S12" s="1">
+        <v>4.601172225</v>
+      </c>
+      <c r="T12" s="1">
+        <v>4.3918501250000004</v>
+      </c>
+      <c r="U12" s="1">
+        <v>4.4627526999999994</v>
+      </c>
+      <c r="V12" s="1">
+        <v>4.4962918749999998</v>
+      </c>
+      <c r="W12" s="1">
+        <v>4.6346805</v>
+      </c>
+      <c r="X12" s="1">
+        <v>4.9040806249999997</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>4.3841498750000003</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>4.5088361250000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.53909474999999996</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.61664697499999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.52334942499999992</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.50653665000000003</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.55781000000000003</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.4599975</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.37429332500000001</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.44726389999999999</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.57686415000000002</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.71922584999999994</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.73678195000000002</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.83504832500000004</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.81934415000000005</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.69392414999999996</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.67786999999999997</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.678868625</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.63522835</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0.57224110000000006</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0.65064667500000006</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0.59504442499999999</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0.59567442500000001</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0.66433719999999985</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0.54462725000000001</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0.55701972500000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.4332658499999997</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.2515909249999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.2302001750000002</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.265750975</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.1929367000000002</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2.0767435000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2.2039538999999997</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.430280625</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2.888579</v>
+      </c>
+      <c r="L14" s="1">
+        <v>3.304117025</v>
+      </c>
+      <c r="M14" s="1">
+        <v>3.5358062500000003</v>
+      </c>
+      <c r="N14" s="1">
+        <v>3.6824370999999996</v>
+      </c>
+      <c r="O14" s="1">
+        <v>3.6599753500000003</v>
+      </c>
+      <c r="P14" s="1">
+        <v>3.508872625</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>3.2100576249999997</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2.8086797749999999</v>
+      </c>
+      <c r="S14" s="1">
+        <v>2.7374651499999998</v>
+      </c>
+      <c r="T14" s="1">
+        <v>2.6905147999999999</v>
+      </c>
+      <c r="U14" s="1">
+        <v>2.5697479749999999</v>
+      </c>
+      <c r="V14" s="1">
+        <v>2.6764564499999999</v>
+      </c>
+      <c r="W14" s="1">
+        <v>2.952235275</v>
+      </c>
+      <c r="X14" s="1">
+        <v>3.1013552500000001</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>2.9949956000000002</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>2.76926535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-0.37059229999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-0.36951054999999994</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-0.40906075000000003</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-0.39788629999999997</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-0.42739947499999997</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-0.44435230000000003</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-0.48916304999999993</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-0.4454456</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-0.36348422499999999</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-0.29242779999999996</v>
+      </c>
+      <c r="M15" s="1">
+        <v>-0.26317489999999999</v>
+      </c>
+      <c r="N15" s="1">
+        <v>-0.25861232499999998</v>
+      </c>
+      <c r="O15" s="1">
+        <v>-0.2186226</v>
+      </c>
+      <c r="P15" s="1">
+        <v>-0.23288365</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>-0.27411205</v>
+      </c>
+      <c r="R15" s="1">
+        <v>-0.33424182499999999</v>
+      </c>
+      <c r="S15" s="1">
+        <v>-0.33031024999999997</v>
+      </c>
+      <c r="T15" s="1">
+        <v>-0.33290102500000002</v>
+      </c>
+      <c r="U15" s="1">
+        <v>-0.36325867499999998</v>
+      </c>
+      <c r="V15" s="1">
+        <v>-0.36535494999999996</v>
+      </c>
+      <c r="W15" s="1">
+        <v>-0.35793115000000003</v>
+      </c>
+      <c r="X15" s="1">
+        <v>-0.305539375</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>-0.36267352500000005</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>-0.35492305000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.5290298</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.4218597500000001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.345293625</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.317710825</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.3505808249999998</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.3715896000000001</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.519686375</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.65393575</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1.9065729999999999</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2.2347972999999999</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2.4425915250000001</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2.5276896249999998</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2.3751450749999998</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2.0249888500000002</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1.885452275</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1.8198241749999999</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1.8135859000000001</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1.7755686499999999</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1.8766682750000001</v>
+      </c>
+      <c r="V16" s="1">
+        <v>1.9886779500000002</v>
+      </c>
+      <c r="W16" s="1">
+        <v>2.1128006500000001</v>
+      </c>
+      <c r="X16" s="1">
+        <v>2.3101603500000003</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>2.0416336749999999</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>1.7348378250000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-1.556668725</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-1.5710755999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-1.5964203750000001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-1.6005045250000001</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-1.608673075</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-1.594825725</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-1.5674107749999999</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-1.4808578249999997</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-1.4389801</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-1.354469275</v>
+      </c>
+      <c r="M17" s="1">
+        <v>-1.3156966999999999</v>
+      </c>
+      <c r="N17" s="1">
+        <v>-1.3395868499999999</v>
+      </c>
+      <c r="O17" s="1">
+        <v>-1.3852691500000001</v>
+      </c>
+      <c r="P17" s="1">
+        <v>-1.39886475</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>-1.4217758250000001</v>
+      </c>
+      <c r="R17" s="1">
+        <v>-1.4484354749999999</v>
+      </c>
+      <c r="S17" s="1">
+        <v>-1.4390080999999999</v>
+      </c>
+      <c r="T17" s="1">
+        <v>-1.420489025</v>
+      </c>
+      <c r="U17" s="1">
+        <v>-1.444183325</v>
+      </c>
+      <c r="V17" s="1">
+        <v>-1.445721925</v>
+      </c>
+      <c r="W17" s="1">
+        <v>-1.457695</v>
+      </c>
+      <c r="X17" s="1">
+        <v>-1.4616114499999999</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>-1.515182475</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>-1.52100115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.5314117</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.4289046000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.39557105</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.3385815999999999</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.31603425</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.2605665750000001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.1594960249999999</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.4297574749999999</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.2869685500000001</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.443798975</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1.5845109750000002</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1.8933795500000001</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1.7947299749999999</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1.573835375</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1.3962508</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1.33322775</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1.3252210250000001</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1.3528366750000003</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1.3933860250000001</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1.4347203749999999</v>
+      </c>
+      <c r="W18" s="1">
+        <v>1.5838416</v>
+      </c>
+      <c r="X18" s="1">
+        <v>1.7067268249999998</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1.7097093999999999</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>1.5965465500000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-6.6919350000000002E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-8.6171675000000003E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-8.3374400000000001E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-8.9626074999999999E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-0.10273452499999999</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-0.11990515</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-0.18101200000000001</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-0.12515912500000001</v>
+      </c>
+      <c r="K19" s="1">
+        <v>-0.130117975</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-8.2066774999999995E-2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>-8.8874774999999989E-2</v>
+      </c>
+      <c r="N19" s="1">
+        <v>-2.6226325000000002E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>-2.5167624999999999E-2</v>
+      </c>
+      <c r="P19" s="1">
+        <v>-6.8151375E-2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>-8.5816100000000006E-2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>-7.9338450000000005E-2</v>
+      </c>
+      <c r="S19" s="1">
+        <v>-0.10401450000000001</v>
+      </c>
+      <c r="T19" s="1">
+        <v>-0.107077175</v>
+      </c>
+      <c r="U19" s="1">
+        <v>-8.484810000000001E-2</v>
+      </c>
+      <c r="V19" s="1">
+        <v>-9.6737599999999993E-2</v>
+      </c>
+      <c r="W19" s="1">
+        <v>-7.9065275000000004E-2</v>
+      </c>
+      <c r="X19" s="1">
+        <v>-3.8513625000000003E-2</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>-3.51927E-2</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>-4.0664625000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.1955760499999997</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.0018885750000002</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.8936436249999999</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.8165838750000001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.8118486499999999</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1.7911430500000001</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.9467746750000001</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2.2568999500000002</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2.7133194749999996</v>
+      </c>
+      <c r="L20" s="1">
+        <v>3.0897055249999998</v>
+      </c>
+      <c r="M20" s="1">
+        <v>3.4437832749999999</v>
+      </c>
+      <c r="N20" s="1">
+        <v>3.5150056000000003</v>
+      </c>
+      <c r="O20" s="1">
+        <v>3.200894425</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2.8018639249999997</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>2.554091675</v>
+      </c>
+      <c r="R20" s="1">
+        <v>2.4595388749999998</v>
+      </c>
+      <c r="S20" s="1">
+        <v>2.4074416750000003</v>
+      </c>
+      <c r="T20" s="1">
+        <v>2.4449666749999999</v>
+      </c>
+      <c r="U20" s="1">
+        <v>2.4817638999999998</v>
+      </c>
+      <c r="V20" s="1">
+        <v>2.5842638999999998</v>
+      </c>
+      <c r="W20" s="1">
+        <v>2.8110833250000002</v>
+      </c>
+      <c r="X20" s="1">
+        <v>2.9930305500000003</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>2.7702499500000002</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>2.3659336500000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-0.25722872499999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-0.27620339999999999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-0.27556112500000002</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-0.286115175</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-0.28514972500000002</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-0.31554784999999996</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-0.29693257499999998</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-0.23652372500000002</v>
+      </c>
+      <c r="K21" s="1">
+        <v>-0.14247082500000002</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-9.0562500000000004E-2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>-5.6069425000000006E-2</v>
+      </c>
+      <c r="N21" s="1">
+        <v>-6.2753074999999992E-2</v>
+      </c>
+      <c r="O21" s="1">
+        <v>-9.6641499999999991E-2</v>
+      </c>
+      <c r="P21" s="1">
+        <v>-0.14626317500000002</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>-0.1781596</v>
+      </c>
+      <c r="R21" s="1">
+        <v>-0.18485644999999998</v>
+      </c>
+      <c r="S21" s="1">
+        <v>-0.18763512500000001</v>
+      </c>
+      <c r="T21" s="1">
+        <v>-0.168814675</v>
+      </c>
+      <c r="U21" s="1">
+        <v>-0.15095975</v>
+      </c>
+      <c r="V21" s="1">
+        <v>-0.13673735000000001</v>
+      </c>
+      <c r="W21" s="1">
+        <v>-0.127753425</v>
+      </c>
+      <c r="X21" s="1">
+        <v>-0.13695725</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>-0.19202617499999997</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>-0.24598680000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.79398930000000001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.69832722499999988</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.65300369999999996</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.62194040000000006</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.61985855000000001</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.61976419999999999</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.73994222500000006</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.94497724999999999</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1.1720313499999999</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.3575565500000002</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1.4900042250000001</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1.5694448749999999</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1.3667973999999998</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1.2113858749999999</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1.0857385749999999</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0.98695025000000003</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0.95253042499999996</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0.98941702500000006</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1.0599371750000002</v>
+      </c>
+      <c r="V22" s="1">
+        <v>1.1447062250000002</v>
+      </c>
+      <c r="W22" s="1">
+        <v>1.2517366999999999</v>
+      </c>
+      <c r="X22" s="1">
+        <v>1.3355246249999999</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>1.2127069750000001</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0.97908079999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-0.30458775000000005</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-0.32622747499999999</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-0.34317695000000004</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-0.34718432500000002</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-0.33871442499999999</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-0.34631572500000002</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-0.304065525</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-0.23962307500000002</v>
+      </c>
+      <c r="K23" s="1">
+        <v>-0.20852095000000001</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-0.19313862500000001</v>
+      </c>
+      <c r="M23" s="1">
+        <v>-0.175523875</v>
+      </c>
+      <c r="N23" s="1">
+        <v>-0.17500817499999999</v>
+      </c>
+      <c r="O23" s="1">
+        <v>-0.19759515000000002</v>
+      </c>
+      <c r="P23" s="1">
+        <v>-0.23196530000000001</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>-0.24079210000000001</v>
+      </c>
+      <c r="R23" s="1">
+        <v>-0.25034137500000003</v>
+      </c>
+      <c r="S23" s="1">
+        <v>-0.25006545000000002</v>
+      </c>
+      <c r="T23" s="1">
+        <v>-0.22103292499999999</v>
+      </c>
+      <c r="U23" s="1">
+        <v>-0.18789052499999997</v>
+      </c>
+      <c r="V23" s="1">
+        <v>-0.17348574999999999</v>
+      </c>
+      <c r="W23" s="1">
+        <v>-0.19070969999999998</v>
+      </c>
+      <c r="X23" s="1">
+        <v>-0.16745090000000001</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>-0.20010444999999999</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>-0.22454280000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4.906856275</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4.8957103750000002</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5.2488153250000007</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4.3768584749999997</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2.5040968750000001</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3.012069125</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3.4149621750000003</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3.5476830749999997</v>
+      </c>
+      <c r="K24" s="1">
+        <v>3.329369925</v>
+      </c>
+      <c r="L24" s="1">
+        <v>3.4664659250000005</v>
+      </c>
+      <c r="M24" s="1">
+        <v>4.0859596750000007</v>
+      </c>
+      <c r="N24" s="1">
+        <v>4.1907408249999998</v>
+      </c>
+      <c r="O24" s="1">
+        <v>4.1608808750000001</v>
+      </c>
+      <c r="P24" s="1">
+        <v>3.8033983500000001</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>4.1149353</v>
+      </c>
+      <c r="R24" s="1">
+        <v>4.0803135749999999</v>
+      </c>
+      <c r="S24" s="1">
+        <v>3.7759036499999996</v>
+      </c>
+      <c r="T24" s="1">
+        <v>3.7240152500000003</v>
+      </c>
+      <c r="U24" s="1">
+        <v>3.9569639499999996</v>
+      </c>
+      <c r="V24" s="1">
+        <v>4.1869872749999999</v>
+      </c>
+      <c r="W24" s="1">
+        <v>3.7882323250000001</v>
+      </c>
+      <c r="X24" s="1">
+        <v>3.8169116250000004</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>3.6101862249999996</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>3.8839062249999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.21983760000000002</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.31438935000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.41136394999999998</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.16632295</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-0.33960809999999997</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-0.13657905000000001</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-0.20097394999999998</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-0.49290764999999997</v>
+      </c>
+      <c r="K25" s="1">
+        <v>-0.736914925</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-0.80266862500000002</v>
+      </c>
+      <c r="M25" s="1">
+        <v>-0.40406200000000003</v>
+      </c>
+      <c r="N25" s="1">
+        <v>-0.59712662500000002</v>
+      </c>
+      <c r="O25" s="1">
+        <v>-0.37556040000000002</v>
+      </c>
+      <c r="P25" s="1">
+        <v>-8.8978724999999995E-2</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>-0.42945915000000001</v>
+      </c>
+      <c r="R25" s="1">
+        <v>-0.34637867499999997</v>
+      </c>
+      <c r="S25" s="1">
+        <v>-0.24777625000000003</v>
+      </c>
+      <c r="T25" s="1">
+        <v>-0.25410395000000002</v>
+      </c>
+      <c r="U25" s="1">
+        <v>-0.20576299999999997</v>
+      </c>
+      <c r="V25" s="1">
+        <v>-0.33703615000000003</v>
+      </c>
+      <c r="W25" s="1">
+        <v>-0.52336052499999997</v>
+      </c>
+      <c r="X25" s="1">
+        <v>1.0923724999999995E-2</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>-0.22155202500000001</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0.11535152499999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8.4249181499999999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8.2624132750000001</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8.2521355249999999</v>
+      </c>
+      <c r="F26" s="1">
+        <v>8.1625511750000008</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8.0474125249999986</v>
+      </c>
+      <c r="H26" s="1">
+        <v>8.0178288000000002</v>
+      </c>
+      <c r="I26" s="1">
+        <v>8.3786666249999993</v>
+      </c>
+      <c r="J26" s="1">
+        <v>8.3472771749999986</v>
+      </c>
+      <c r="K26" s="1">
+        <v>8.7254807749999994</v>
+      </c>
+      <c r="L26" s="1">
+        <v>8.8660350000000001</v>
+      </c>
+      <c r="M26" s="1">
+        <v>9.2168755749999995</v>
+      </c>
+      <c r="N26" s="1">
+        <v>9.3672959749999993</v>
+      </c>
+      <c r="O26" s="1">
+        <v>9.2986836499999992</v>
+      </c>
+      <c r="P26" s="1">
+        <v>8.8064517999999996</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>8.7011744750000002</v>
+      </c>
+      <c r="R26" s="1">
+        <v>8.6997844999999998</v>
+      </c>
+      <c r="S26" s="1">
+        <v>8.5475590500000003</v>
+      </c>
+      <c r="T26" s="1">
+        <v>8.6872854499999992</v>
+      </c>
+      <c r="U26" s="1">
+        <v>6.9458671749999992</v>
+      </c>
+      <c r="V26" s="1">
+        <v>8.2672777249999996</v>
+      </c>
+      <c r="W26" s="1">
+        <v>9.1350657999999996</v>
+      </c>
+      <c r="X26" s="1">
+        <v>9.2568762249999992</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>9.0738153500000003</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>8.6140889999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.125346075</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7.2011375000000002E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3.4928624999999998E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4.7150849999999994E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-1.7374500000000006E-3</v>
+      </c>
+      <c r="H27" s="1">
+        <v>-2.4376799999999997E-2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>7.8678200000000004E-2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.14728982499999999</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.30437340000000002</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.36187574999999994</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.49813335000000003</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.52605095000000002</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.43660217499999998</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.36993100000000001</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.32048535</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0.30506745000000002</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0.23895664999999999</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0.35756852500000003</v>
+      </c>
+      <c r="U27" s="1">
+        <v>-0.30799235000000003</v>
+      </c>
+      <c r="V27" s="1">
+        <v>5.4650300000000006E-2</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0.32201182500000003</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0.31090200000000001</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0.23159632499999999</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0.11965129999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.27654842499999999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.24996812499999999</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.23808317500000001</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.23394959999999998</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.22456302500000003</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.23561167499999999</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.27344085000000001</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.32147424999999996</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.37590572500000002</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.448473175</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.49695444999999994</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.52591647500000005</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.47800735</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.41610135000000004</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.35327547500000001</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.34051902499999998</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0.33567974999999994</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0.34110337500000004</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0.34155952499999997</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0.38077894999999995</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0.40631220000000001</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0.42343144999999999</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0.3761563</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0.31839724999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.12753900000000001</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.12753900000000001</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.12753900000000001</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.13014439999999999</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.13217619999999999</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.13217619999999999</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.126138575</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.12228745000000001</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.10841519999999999</v>
+      </c>
+      <c r="L29" s="1">
+        <v>9.0306150000000002E-2</v>
+      </c>
+      <c r="M29" s="1">
+        <v>8.8258100000000006E-2</v>
+      </c>
+      <c r="N29" s="1">
+        <v>8.8258100000000006E-2</v>
+      </c>
+      <c r="O29" s="1">
+        <v>8.8212100000000015E-2</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.1073062</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0.102245975</v>
+      </c>
+      <c r="R29" s="1">
+        <v>9.8391624999999996E-2</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0.10094504999999999</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0.1016046</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0.1016046</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0.100348325</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0.102520825</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0.11059685</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0.1072632</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0.110645675</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B29" xr:uid="{5866F9B7-148D-4987-830D-0DE958FA315C}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Q"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>